--- a/stock_historical_data/1mo/AWL.NS.xlsx
+++ b/stock_historical_data/1mo/AWL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1763,9 +1840,12 @@
         <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,60 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B29" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="C29" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="D29" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="E29" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="F29" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>22</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/AWL.NS.xlsx
+++ b/stock_historical_data/1mo/AWL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>backup</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>detect_structure</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>1</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>2</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>1</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>2</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>1</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1846,7 +1923,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2004,7 +2090,12 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/AWL.NS.xlsx
+++ b/stock_historical_data/1mo/AWL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B2" t="n">
+        <v>227</v>
+      </c>
+      <c r="C2" t="n">
+        <v>419.8999938964844</v>
+      </c>
+      <c r="D2" t="n">
+        <v>227</v>
+      </c>
+      <c r="E2" t="n">
         <v>379.3500061035156</v>
       </c>
-      <c r="C2" t="n">
-        <v>516.9000244140625</v>
-      </c>
-      <c r="D2" t="n">
-        <v>337.25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>516.9000244140625</v>
-      </c>
-      <c r="F2" t="n">
-        <v>516.9000244140625</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>322955673</v>
+        <v>551326697</v>
       </c>
       <c r="H2" t="n">
         <v>2022</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B3" t="n">
-        <v>526</v>
+        <v>379.3500061035156</v>
       </c>
       <c r="C3" t="n">
-        <v>878</v>
+        <v>516.9000244140625</v>
       </c>
       <c r="D3" t="n">
-        <v>521</v>
+        <v>337.25</v>
       </c>
       <c r="E3" t="n">
-        <v>780.4000244140625</v>
+        <v>516.9000244140625</v>
       </c>
       <c r="F3" t="n">
-        <v>780.4000244140625</v>
+        <v>516.9000244140625</v>
       </c>
       <c r="G3" t="n">
-        <v>367691301</v>
+        <v>322955673</v>
       </c>
       <c r="H3" t="n">
         <v>2022</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B4" t="n">
-        <v>758</v>
+        <v>526</v>
       </c>
       <c r="C4" t="n">
-        <v>783</v>
+        <v>878</v>
       </c>
       <c r="D4" t="n">
-        <v>540.2000122070312</v>
+        <v>521</v>
       </c>
       <c r="E4" t="n">
-        <v>668.5499877929688</v>
+        <v>780.4000244140625</v>
       </c>
       <c r="F4" t="n">
-        <v>668.5499877929688</v>
+        <v>780.4000244140625</v>
       </c>
       <c r="G4" t="n">
-        <v>70036233</v>
+        <v>367691301</v>
       </c>
       <c r="H4" t="n">
         <v>2022</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B5" t="n">
-        <v>657</v>
+        <v>758</v>
       </c>
       <c r="C5" t="n">
-        <v>690.0499877929688</v>
+        <v>783</v>
       </c>
       <c r="D5" t="n">
-        <v>532.6500244140625</v>
+        <v>540.2000122070312</v>
       </c>
       <c r="E5" t="n">
-        <v>574.1500244140625</v>
+        <v>668.5499877929688</v>
       </c>
       <c r="F5" t="n">
-        <v>574.1500244140625</v>
+        <v>668.5499877929688</v>
       </c>
       <c r="G5" t="n">
-        <v>32130676</v>
+        <v>70036233</v>
       </c>
       <c r="H5" t="n">
         <v>2022</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B6" t="n">
-        <v>571</v>
+        <v>657</v>
       </c>
       <c r="C6" t="n">
-        <v>667</v>
+        <v>690.0499877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>558.0999755859375</v>
+        <v>532.6500244140625</v>
       </c>
       <c r="E6" t="n">
-        <v>658.7999877929688</v>
+        <v>574.1500244140625</v>
       </c>
       <c r="F6" t="n">
-        <v>658.7999877929688</v>
+        <v>574.1500244140625</v>
       </c>
       <c r="G6" t="n">
-        <v>23731057</v>
+        <v>32130676</v>
       </c>
       <c r="H6" t="n">
         <v>2022</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B7" t="n">
-        <v>660</v>
+        <v>571</v>
       </c>
       <c r="C7" t="n">
-        <v>761.5999755859375</v>
+        <v>667</v>
       </c>
       <c r="D7" t="n">
-        <v>652</v>
+        <v>558.0999755859375</v>
       </c>
       <c r="E7" t="n">
-        <v>692.1500244140625</v>
+        <v>658.7999877929688</v>
       </c>
       <c r="F7" t="n">
-        <v>692.1500244140625</v>
+        <v>658.7999877929688</v>
       </c>
       <c r="G7" t="n">
-        <v>65442280</v>
+        <v>23731057</v>
       </c>
       <c r="H7" t="n">
         <v>2022</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B8" t="n">
-        <v>689</v>
+        <v>660</v>
       </c>
       <c r="C8" t="n">
-        <v>841.7000122070312</v>
+        <v>761.5999755859375</v>
       </c>
       <c r="D8" t="n">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="E8" t="n">
-        <v>755.5</v>
+        <v>692.1500244140625</v>
       </c>
       <c r="F8" t="n">
-        <v>755.5</v>
+        <v>692.1500244140625</v>
       </c>
       <c r="G8" t="n">
-        <v>105932023</v>
+        <v>65442280</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B9" t="n">
-        <v>754.9500122070312</v>
+        <v>689</v>
       </c>
       <c r="C9" t="n">
-        <v>764.9500122070312</v>
+        <v>841.7000122070312</v>
       </c>
       <c r="D9" t="n">
-        <v>630.2000122070312</v>
+        <v>665</v>
       </c>
       <c r="E9" t="n">
-        <v>672.4000244140625</v>
+        <v>755.5</v>
       </c>
       <c r="F9" t="n">
-        <v>672.4000244140625</v>
+        <v>755.5</v>
       </c>
       <c r="G9" t="n">
-        <v>61202381</v>
+        <v>105932023</v>
       </c>
       <c r="H9" t="n">
         <v>2022</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B10" t="n">
-        <v>678.7000122070312</v>
+        <v>754.9500122070312</v>
       </c>
       <c r="C10" t="n">
-        <v>730</v>
+        <v>764.9500122070312</v>
       </c>
       <c r="D10" t="n">
-        <v>615.0499877929688</v>
+        <v>630.2000122070312</v>
       </c>
       <c r="E10" t="n">
-        <v>630.3499755859375</v>
+        <v>672.4000244140625</v>
       </c>
       <c r="F10" t="n">
-        <v>630.3499755859375</v>
+        <v>672.4000244140625</v>
       </c>
       <c r="G10" t="n">
-        <v>47054184</v>
+        <v>61202381</v>
       </c>
       <c r="H10" t="n">
         <v>2022</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B11" t="n">
-        <v>636</v>
+        <v>678.7000122070312</v>
       </c>
       <c r="C11" t="n">
-        <v>668.4000244140625</v>
+        <v>730</v>
       </c>
       <c r="D11" t="n">
-        <v>492.5499877929688</v>
+        <v>615.0499877929688</v>
       </c>
       <c r="E11" t="n">
-        <v>617.6500244140625</v>
+        <v>630.3499755859375</v>
       </c>
       <c r="F11" t="n">
-        <v>617.6500244140625</v>
+        <v>630.3499755859375</v>
       </c>
       <c r="G11" t="n">
-        <v>61576499</v>
+        <v>47054184</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B12" t="n">
-        <v>618.4500122070312</v>
+        <v>636</v>
       </c>
       <c r="C12" t="n">
-        <v>623.2999877929688</v>
+        <v>668.4000244140625</v>
       </c>
       <c r="D12" t="n">
-        <v>466.4500122070312</v>
+        <v>492.5499877929688</v>
       </c>
       <c r="E12" t="n">
-        <v>466.4500122070312</v>
+        <v>617.6500244140625</v>
       </c>
       <c r="F12" t="n">
-        <v>466.4500122070312</v>
+        <v>617.6500244140625</v>
       </c>
       <c r="G12" t="n">
-        <v>33090059</v>
+        <v>61576499</v>
       </c>
       <c r="H12" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B13" t="n">
-        <v>475</v>
+        <v>618.4500122070312</v>
       </c>
       <c r="C13" t="n">
-        <v>488.7000122070312</v>
+        <v>623.2999877929688</v>
       </c>
       <c r="D13" t="n">
-        <v>327.25</v>
+        <v>466.4500122070312</v>
       </c>
       <c r="E13" t="n">
-        <v>361.6499938964844</v>
+        <v>466.4500122070312</v>
       </c>
       <c r="F13" t="n">
-        <v>361.6499938964844</v>
+        <v>466.4500122070312</v>
       </c>
       <c r="G13" t="n">
-        <v>117504056</v>
+        <v>33090059</v>
       </c>
       <c r="H13" t="n">
         <v>2023</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B14" t="n">
-        <v>369</v>
+        <v>475</v>
       </c>
       <c r="C14" t="n">
-        <v>484.4500122070312</v>
+        <v>488.7000122070312</v>
       </c>
       <c r="D14" t="n">
-        <v>357.3999938964844</v>
+        <v>327.25</v>
       </c>
       <c r="E14" t="n">
-        <v>405.8500061035156</v>
+        <v>361.6499938964844</v>
       </c>
       <c r="F14" t="n">
-        <v>405.8500061035156</v>
+        <v>361.6499938964844</v>
       </c>
       <c r="G14" t="n">
-        <v>94949356</v>
+        <v>117504056</v>
       </c>
       <c r="H14" t="n">
         <v>2023</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B15" t="n">
+        <v>369</v>
+      </c>
+      <c r="C15" t="n">
+        <v>484.4500122070312</v>
+      </c>
+      <c r="D15" t="n">
+        <v>357.3999938964844</v>
+      </c>
+      <c r="E15" t="n">
         <v>405.8500061035156</v>
       </c>
-      <c r="C15" t="n">
-        <v>426</v>
-      </c>
-      <c r="D15" t="n">
-        <v>391.2000122070312</v>
-      </c>
-      <c r="E15" t="n">
-        <v>411.8500061035156</v>
-      </c>
       <c r="F15" t="n">
-        <v>411.8500061035156</v>
+        <v>405.8500061035156</v>
       </c>
       <c r="G15" t="n">
-        <v>34614383</v>
+        <v>94949356</v>
       </c>
       <c r="H15" t="n">
         <v>2023</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B16" t="n">
+        <v>405.8500061035156</v>
+      </c>
+      <c r="C16" t="n">
+        <v>426</v>
+      </c>
+      <c r="D16" t="n">
+        <v>391.2000122070312</v>
+      </c>
+      <c r="E16" t="n">
         <v>411.8500061035156</v>
       </c>
-      <c r="C16" t="n">
-        <v>509</v>
-      </c>
-      <c r="D16" t="n">
-        <v>366</v>
-      </c>
-      <c r="E16" t="n">
-        <v>436.1000061035156</v>
-      </c>
       <c r="F16" t="n">
-        <v>436.1000061035156</v>
+        <v>411.8500061035156</v>
       </c>
       <c r="G16" t="n">
-        <v>73815293</v>
+        <v>34614383</v>
       </c>
       <c r="H16" t="n">
         <v>2023</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B17" t="n">
-        <v>440</v>
+        <v>411.8500061035156</v>
       </c>
       <c r="C17" t="n">
-        <v>448.3500061035156</v>
+        <v>509</v>
       </c>
       <c r="D17" t="n">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="E17" t="n">
-        <v>409.9500122070312</v>
+        <v>436.1000061035156</v>
       </c>
       <c r="F17" t="n">
-        <v>409.9500122070312</v>
+        <v>436.1000061035156</v>
       </c>
       <c r="G17" t="n">
-        <v>29277173</v>
+        <v>73815293</v>
       </c>
       <c r="H17" t="n">
         <v>2023</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B18" t="n">
-        <v>413.8500061035156</v>
+        <v>440</v>
       </c>
       <c r="C18" t="n">
-        <v>422.7000122070312</v>
+        <v>448.3500061035156</v>
       </c>
       <c r="D18" t="n">
-        <v>396.2999877929688</v>
+        <v>394</v>
       </c>
       <c r="E18" t="n">
-        <v>411.8999938964844</v>
+        <v>409.9500122070312</v>
       </c>
       <c r="F18" t="n">
-        <v>411.8999938964844</v>
+        <v>409.9500122070312</v>
       </c>
       <c r="G18" t="n">
-        <v>27347580</v>
+        <v>29277173</v>
       </c>
       <c r="H18" t="n">
         <v>2023</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B19" t="n">
-        <v>414</v>
+        <v>413.8500061035156</v>
       </c>
       <c r="C19" t="n">
-        <v>416.4500122070312</v>
+        <v>422.7000122070312</v>
       </c>
       <c r="D19" t="n">
-        <v>358</v>
+        <v>396.2999877929688</v>
       </c>
       <c r="E19" t="n">
-        <v>359.5</v>
+        <v>411.8999938964844</v>
       </c>
       <c r="F19" t="n">
-        <v>359.5</v>
+        <v>411.8999938964844</v>
       </c>
       <c r="G19" t="n">
-        <v>43635352</v>
+        <v>27347580</v>
       </c>
       <c r="H19" t="n">
         <v>2023</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B20" t="n">
-        <v>354.8500061035156</v>
+        <v>414</v>
       </c>
       <c r="C20" t="n">
-        <v>369.5</v>
+        <v>416.4500122070312</v>
       </c>
       <c r="D20" t="n">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="E20" t="n">
-        <v>337.3999938964844</v>
+        <v>359.5</v>
       </c>
       <c r="F20" t="n">
-        <v>337.3999938964844</v>
+        <v>359.5</v>
       </c>
       <c r="G20" t="n">
-        <v>29400598</v>
+        <v>43635352</v>
       </c>
       <c r="H20" t="n">
         <v>2023</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1528,36 +1520,36 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B21" t="n">
+        <v>354.8500061035156</v>
+      </c>
+      <c r="C21" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>337</v>
+      </c>
+      <c r="E21" t="n">
         <v>337.3999938964844</v>
       </c>
-      <c r="C21" t="n">
-        <v>364</v>
-      </c>
-      <c r="D21" t="n">
-        <v>303.1000061035156</v>
-      </c>
-      <c r="E21" t="n">
-        <v>326.6000061035156</v>
-      </c>
       <c r="F21" t="n">
-        <v>326.6000061035156</v>
+        <v>337.3999938964844</v>
       </c>
       <c r="G21" t="n">
-        <v>26454384</v>
+        <v>29400598</v>
       </c>
       <c r="H21" t="n">
         <v>2023</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1581,36 +1573,36 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B22" t="n">
-        <v>327</v>
+        <v>337.3999938964844</v>
       </c>
       <c r="C22" t="n">
-        <v>371.9500122070312</v>
+        <v>364</v>
       </c>
       <c r="D22" t="n">
-        <v>285.7999877929688</v>
+        <v>303.1000061035156</v>
       </c>
       <c r="E22" t="n">
-        <v>340.6499938964844</v>
+        <v>326.6000061035156</v>
       </c>
       <c r="F22" t="n">
-        <v>340.6499938964844</v>
+        <v>326.6000061035156</v>
       </c>
       <c r="G22" t="n">
-        <v>67116984</v>
+        <v>26454384</v>
       </c>
       <c r="H22" t="n">
         <v>2023</v>
       </c>
       <c r="I22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B23" t="n">
-        <v>343.7999877929688</v>
+        <v>327</v>
       </c>
       <c r="C23" t="n">
-        <v>410.5</v>
+        <v>371.9500122070312</v>
       </c>
       <c r="D23" t="n">
-        <v>336.1000061035156</v>
+        <v>285.7999877929688</v>
       </c>
       <c r="E23" t="n">
-        <v>354.8999938964844</v>
+        <v>340.6499938964844</v>
       </c>
       <c r="F23" t="n">
-        <v>354.8999938964844</v>
+        <v>340.6499938964844</v>
       </c>
       <c r="G23" t="n">
-        <v>97350938</v>
+        <v>67116984</v>
       </c>
       <c r="H23" t="n">
         <v>2023</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -1692,31 +1684,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B24" t="n">
-        <v>356.75</v>
+        <v>343.7999877929688</v>
       </c>
       <c r="C24" t="n">
-        <v>397.7999877929688</v>
+        <v>410.5</v>
       </c>
       <c r="D24" t="n">
-        <v>346.5499877929688</v>
+        <v>336.1000061035156</v>
       </c>
       <c r="E24" t="n">
-        <v>355.4500122070312</v>
+        <v>354.8999938964844</v>
       </c>
       <c r="F24" t="n">
-        <v>355.4500122070312</v>
+        <v>354.8999938964844</v>
       </c>
       <c r="G24" t="n">
-        <v>50821026</v>
+        <v>97350938</v>
       </c>
       <c r="H24" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1745,31 +1737,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B25" t="n">
-        <v>355.2000122070312</v>
+        <v>356.75</v>
       </c>
       <c r="C25" t="n">
-        <v>408.9500122070312</v>
+        <v>397.7999877929688</v>
       </c>
       <c r="D25" t="n">
-        <v>328.7999877929688</v>
+        <v>346.5499877929688</v>
       </c>
       <c r="E25" t="n">
-        <v>381.6499938964844</v>
+        <v>355.4500122070312</v>
       </c>
       <c r="F25" t="n">
-        <v>381.6499938964844</v>
+        <v>355.4500122070312</v>
       </c>
       <c r="G25" t="n">
-        <v>92363767</v>
+        <v>50821026</v>
       </c>
       <c r="H25" t="n">
         <v>2024</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B26" t="n">
-        <v>385</v>
+        <v>355.2000122070312</v>
       </c>
       <c r="C26" t="n">
-        <v>388.7999877929688</v>
+        <v>408.9500122070312</v>
       </c>
       <c r="D26" t="n">
-        <v>320.1000061035156</v>
+        <v>328.7999877929688</v>
       </c>
       <c r="E26" t="n">
-        <v>321.3999938964844</v>
+        <v>381.6499938964844</v>
       </c>
       <c r="F26" t="n">
-        <v>321.3999938964844</v>
+        <v>381.6499938964844</v>
       </c>
       <c r="G26" t="n">
-        <v>37227406</v>
+        <v>92363767</v>
       </c>
       <c r="H26" t="n">
         <v>2024</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1846,36 +1838,36 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B27" t="n">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="C27" t="n">
-        <v>366.7000122070312</v>
+        <v>388.7999877929688</v>
       </c>
       <c r="D27" t="n">
-        <v>326.1499938964844</v>
+        <v>320.1000061035156</v>
       </c>
       <c r="E27" t="n">
-        <v>357.6000061035156</v>
+        <v>321.3999938964844</v>
       </c>
       <c r="F27" t="n">
-        <v>357.6000061035156</v>
+        <v>321.3999938964844</v>
       </c>
       <c r="G27" t="n">
-        <v>33522163</v>
+        <v>37227406</v>
       </c>
       <c r="H27" t="n">
         <v>2024</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -1899,36 +1891,36 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B28" t="n">
+        <v>328</v>
+      </c>
+      <c r="C28" t="n">
+        <v>366.7000122070312</v>
+      </c>
+      <c r="D28" t="n">
+        <v>326.1499938964844</v>
+      </c>
+      <c r="E28" t="n">
         <v>357.6000061035156</v>
       </c>
-      <c r="C28" t="n">
-        <v>361.5499877929688</v>
-      </c>
-      <c r="D28" t="n">
-        <v>327.2999877929688</v>
-      </c>
-      <c r="E28" t="n">
-        <v>355.75</v>
-      </c>
       <c r="F28" t="n">
-        <v>355.75</v>
+        <v>357.6000061035156</v>
       </c>
       <c r="G28" t="n">
-        <v>39043891</v>
+        <v>33522163</v>
       </c>
       <c r="H28" t="n">
         <v>2024</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1952,61 +1944,519 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B29" t="n">
-        <v>381.9500122070312</v>
+        <v>357.6000061035156</v>
       </c>
       <c r="C29" t="n">
-        <v>383.9500122070312</v>
+        <v>361.5499877929688</v>
       </c>
       <c r="D29" t="n">
-        <v>316</v>
+        <v>327.2999877929688</v>
       </c>
       <c r="E29" t="n">
-        <v>345</v>
+        <v>355.75</v>
       </c>
       <c r="F29" t="n">
-        <v>345</v>
+        <v>355.75</v>
       </c>
       <c r="G29" t="n">
-        <v>26363717</v>
+        <v>39043891</v>
       </c>
       <c r="H29" t="n">
         <v>2024</v>
       </c>
       <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>18</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B30" t="n">
+        <v>381.9500122070312</v>
+      </c>
+      <c r="C30" t="n">
+        <v>383.9500122070312</v>
+      </c>
+      <c r="D30" t="n">
+        <v>316</v>
+      </c>
+      <c r="E30" t="n">
+        <v>345</v>
+      </c>
+      <c r="F30" t="n">
+        <v>345</v>
+      </c>
+      <c r="G30" t="n">
+        <v>26363717</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I30" t="n">
         <v>6</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>22</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B31" t="n">
+        <v>333.1499938964844</v>
+      </c>
+      <c r="C31" t="n">
+        <v>355.7999877929688</v>
+      </c>
+      <c r="D31" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>348.1499938964844</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>53413046</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>27</v>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B32" t="n">
+        <v>349.8999938964844</v>
+      </c>
+      <c r="C32" t="n">
+        <v>403.9500122070312</v>
+      </c>
+      <c r="D32" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>362</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>178356756</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>31</v>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B33" t="n">
+        <v>363</v>
+      </c>
+      <c r="C33" t="n">
+        <v>380.2999877929688</v>
+      </c>
+      <c r="D33" t="n">
+        <v>340.6499938964844</v>
+      </c>
+      <c r="E33" t="n">
+        <v>348.2999877929688</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>40902443</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>35</v>
+      </c>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B34" t="n">
+        <v>350</v>
+      </c>
+      <c r="C34" t="n">
+        <v>355.75</v>
+      </c>
+      <c r="D34" t="n">
+        <v>310.2000122070312</v>
+      </c>
+      <c r="E34" t="n">
+        <v>346.1000061035156</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>36980745</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>40</v>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B35" t="n">
+        <v>348.75</v>
+      </c>
+      <c r="C35" t="n">
+        <v>352.7999877929688</v>
+      </c>
+      <c r="D35" t="n">
+        <v>279</v>
+      </c>
+      <c r="E35" t="n">
+        <v>313.6499938964844</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>54904999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>44</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B36" t="n">
+        <v>315</v>
+      </c>
+      <c r="C36" t="n">
+        <v>337.0499877929688</v>
+      </c>
+      <c r="D36" t="n">
+        <v>290</v>
+      </c>
+      <c r="E36" t="n">
+        <v>308.0499877929688</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>35311787</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>48</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B37" t="n">
+        <v>308</v>
+      </c>
+      <c r="C37" t="n">
+        <v>333</v>
+      </c>
+      <c r="D37" t="n">
+        <v>240.9499969482422</v>
+      </c>
+      <c r="E37" t="n">
+        <v>266.6499938964844</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>122765773</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B38" t="n">
+        <v>267.75</v>
+      </c>
+      <c r="C38" t="n">
+        <v>274.8999938964844</v>
+      </c>
+      <c r="D38" t="n">
+        <v>231.5500030517578</v>
+      </c>
+      <c r="E38" t="n">
+        <v>246.1499938964844</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>38560115</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B39" t="n">
+        <v>246.3000030517578</v>
+      </c>
+      <c r="C39" t="n">
+        <v>270.1300048828125</v>
+      </c>
+      <c r="D39" t="n">
+        <v>233.9400024414062</v>
+      </c>
+      <c r="E39" t="n">
+        <v>258.3200073242188</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>38381923</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
